--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il15-Il2rb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il15-Il2rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H2">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I2">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J2">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03142433333333333</v>
+        <v>0.007477333333333333</v>
       </c>
       <c r="N2">
-        <v>0.094273</v>
+        <v>0.022432</v>
       </c>
       <c r="O2">
-        <v>0.02443580032799489</v>
+        <v>0.02832451980140511</v>
       </c>
       <c r="P2">
-        <v>0.02443580032799488</v>
+        <v>0.02832451980140511</v>
       </c>
       <c r="Q2">
-        <v>0.1684149854791111</v>
+        <v>0.02822792532622222</v>
       </c>
       <c r="R2">
-        <v>1.515734869312</v>
+        <v>0.254051327936</v>
       </c>
       <c r="S2">
-        <v>0.001790922958833936</v>
+        <v>0.001987714131157639</v>
       </c>
       <c r="T2">
-        <v>0.001790922958833936</v>
+        <v>0.00198771413115764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H3">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I3">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J3">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.198141</v>
       </c>
       <c r="O3">
-        <v>0.05135864895345683</v>
+        <v>0.2501894025486007</v>
       </c>
       <c r="P3">
-        <v>0.05135864895345682</v>
+        <v>0.2501894025486007</v>
       </c>
       <c r="Q3">
-        <v>0.3539710589226668</v>
+        <v>0.2493361872353334</v>
       </c>
       <c r="R3">
-        <v>3.185739530304001</v>
+        <v>2.244025685118</v>
       </c>
       <c r="S3">
-        <v>0.003764124043854709</v>
+        <v>0.01755740306979787</v>
       </c>
       <c r="T3">
-        <v>0.003764124043854708</v>
+        <v>0.01755740306979787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H4">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I4">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J4">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.080832</v>
+        <v>0.1027586666666667</v>
       </c>
       <c r="N4">
-        <v>0.242496</v>
+        <v>0.308276</v>
       </c>
       <c r="O4">
-        <v>0.06285557727384775</v>
+        <v>0.3892550671495168</v>
       </c>
       <c r="P4">
-        <v>0.06285557727384773</v>
+        <v>0.3892550671495169</v>
       </c>
       <c r="Q4">
-        <v>0.4332095119360001</v>
+        <v>0.3879275993164444</v>
       </c>
       <c r="R4">
-        <v>3.898885607424001</v>
+        <v>3.491348393848</v>
       </c>
       <c r="S4">
-        <v>0.004606744813736639</v>
+        <v>0.02731653715659559</v>
       </c>
       <c r="T4">
-        <v>0.004606744813736637</v>
+        <v>0.0273165371565956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H5">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I5">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J5">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.107692333333333</v>
+        <v>0.06312366666666668</v>
       </c>
       <c r="N5">
-        <v>3.323077</v>
+        <v>0.189371</v>
       </c>
       <c r="O5">
-        <v>0.8613499734447007</v>
+        <v>0.2391156668737468</v>
       </c>
       <c r="P5">
-        <v>0.8613499734447005</v>
+        <v>0.2391156668737468</v>
       </c>
       <c r="Q5">
-        <v>5.936545614343112</v>
+        <v>0.2383002160731111</v>
       </c>
       <c r="R5">
-        <v>53.42891052908801</v>
+        <v>2.144701944658</v>
       </c>
       <c r="S5">
-        <v>0.0631291556784339</v>
+        <v>0.01678028765742927</v>
       </c>
       <c r="T5">
-        <v>0.0631291556784339</v>
+        <v>0.01678028765742927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.410934333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H6">
-        <v>7.232803000000001</v>
+        <v>11.325398</v>
       </c>
       <c r="I6">
-        <v>0.03297016029422674</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J6">
-        <v>0.03297016029422675</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03142433333333333</v>
+        <v>0.02458133333333333</v>
       </c>
       <c r="N6">
-        <v>0.094273</v>
+        <v>0.073744</v>
       </c>
       <c r="O6">
-        <v>0.02443580032799489</v>
+        <v>0.09311534362673049</v>
       </c>
       <c r="P6">
-        <v>0.02443580032799488</v>
+        <v>0.0931153436267305</v>
       </c>
       <c r="Q6">
-        <v>0.07576200413544444</v>
+        <v>0.09279779445688889</v>
       </c>
       <c r="R6">
-        <v>0.6818580372190001</v>
+        <v>0.8351801501120001</v>
       </c>
       <c r="S6">
-        <v>0.0008056522537317097</v>
+        <v>0.006534503873399114</v>
       </c>
       <c r="T6">
-        <v>0.0008056522537317097</v>
+        <v>0.006534503873399116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I7">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J7">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.06604700000000001</v>
+        <v>0.007477333333333333</v>
       </c>
       <c r="N7">
-        <v>0.198141</v>
+        <v>0.022432</v>
       </c>
       <c r="O7">
-        <v>0.05135864895345683</v>
+        <v>0.02832451980140511</v>
       </c>
       <c r="P7">
-        <v>0.05135864895345682</v>
+        <v>0.02832451980140511</v>
       </c>
       <c r="Q7">
-        <v>0.1592349799136667</v>
+        <v>0.01802735965511111</v>
       </c>
       <c r="R7">
-        <v>1.433114819223</v>
+        <v>0.162246236896</v>
       </c>
       <c r="S7">
-        <v>0.001693302888490392</v>
+        <v>0.00126942512139347</v>
       </c>
       <c r="T7">
-        <v>0.001693302888490392</v>
+        <v>0.001269425121393471</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I8">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J8">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.080832</v>
+        <v>0.06604700000000001</v>
       </c>
       <c r="N8">
-        <v>0.242496</v>
+        <v>0.198141</v>
       </c>
       <c r="O8">
-        <v>0.06285557727384775</v>
+        <v>0.2501894025486007</v>
       </c>
       <c r="P8">
-        <v>0.06285557727384773</v>
+        <v>0.2501894025486007</v>
       </c>
       <c r="Q8">
-        <v>0.194880644032</v>
+        <v>0.1592349799136667</v>
       </c>
       <c r="R8">
-        <v>1.753925796288</v>
+        <v>1.433114819223</v>
       </c>
       <c r="S8">
-        <v>0.002072358458104915</v>
+        <v>0.01121278365629563</v>
       </c>
       <c r="T8">
-        <v>0.002072358458104915</v>
+        <v>0.01121278365629563</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I9">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J9">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.107692333333333</v>
+        <v>0.1027586666666667</v>
       </c>
       <c r="N9">
-        <v>3.323077</v>
+        <v>0.308276</v>
       </c>
       <c r="O9">
-        <v>0.8613499734447007</v>
+        <v>0.3892550671495168</v>
       </c>
       <c r="P9">
-        <v>0.8613499734447005</v>
+        <v>0.3892550671495169</v>
       </c>
       <c r="Q9">
-        <v>2.670573477203444</v>
+        <v>0.2477443975142222</v>
       </c>
       <c r="R9">
-        <v>24.035161294831</v>
+        <v>2.229699577628</v>
       </c>
       <c r="S9">
-        <v>0.02839884669389972</v>
+        <v>0.01744531467201736</v>
       </c>
       <c r="T9">
-        <v>0.02839884669389973</v>
+        <v>0.01744531467201737</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.32480766666667</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H10">
-        <v>57.974423</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I10">
-        <v>0.2642718209351624</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J10">
-        <v>0.2642718209351624</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,33 +1057,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03142433333333333</v>
+        <v>0.06312366666666668</v>
       </c>
       <c r="N10">
-        <v>0.094273</v>
+        <v>0.189371</v>
       </c>
       <c r="O10">
-        <v>0.02443580032799489</v>
+        <v>0.2391156668737468</v>
       </c>
       <c r="P10">
-        <v>0.02443580032799488</v>
+        <v>0.2391156668737468</v>
       </c>
       <c r="Q10">
-        <v>0.607269197719889</v>
+        <v>0.1521870152125556</v>
       </c>
       <c r="R10">
-        <v>5.465422779479</v>
+        <v>1.369683136913</v>
       </c>
       <c r="S10">
-        <v>0.006457693448687248</v>
+        <v>0.01071649004383929</v>
       </c>
       <c r="T10">
-        <v>0.006457693448687247</v>
+        <v>0.01071649004383929</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.32480766666667</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H11">
-        <v>57.974423</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I11">
-        <v>0.2642718209351624</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J11">
-        <v>0.2642718209351624</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.06604700000000001</v>
+        <v>0.02458133333333333</v>
       </c>
       <c r="N11">
-        <v>0.198141</v>
+        <v>0.073744</v>
       </c>
       <c r="O11">
-        <v>0.05135864895345683</v>
+        <v>0.09311534362673049</v>
       </c>
       <c r="P11">
-        <v>0.05135864895345682</v>
+        <v>0.0931153436267305</v>
       </c>
       <c r="Q11">
-        <v>1.276345571960334</v>
+        <v>0.05926398049244445</v>
       </c>
       <c r="R11">
-        <v>11.487110147643</v>
+        <v>0.533375824432</v>
       </c>
       <c r="S11">
-        <v>0.01357264367969981</v>
+        <v>0.00417316717867511</v>
       </c>
       <c r="T11">
-        <v>0.01357264367969981</v>
+        <v>0.004173167178675111</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H12">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I12">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J12">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.080832</v>
+        <v>0.007477333333333333</v>
       </c>
       <c r="N12">
-        <v>0.242496</v>
+        <v>0.022432</v>
       </c>
       <c r="O12">
-        <v>0.06285557727384775</v>
+        <v>0.02832451980140511</v>
       </c>
       <c r="P12">
-        <v>0.06285557727384773</v>
+        <v>0.02832451980140511</v>
       </c>
       <c r="Q12">
-        <v>1.562062853312</v>
+        <v>0.1035631653048889</v>
       </c>
       <c r="R12">
-        <v>14.058565679808</v>
+        <v>0.9320684877440001</v>
       </c>
       <c r="S12">
-        <v>0.01661095786209056</v>
+        <v>0.007292564535471367</v>
       </c>
       <c r="T12">
-        <v>0.01661095786209055</v>
+        <v>0.007292564535471369</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H13">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I13">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J13">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>1.107692333333333</v>
+        <v>0.06604700000000001</v>
       </c>
       <c r="N13">
-        <v>3.323077</v>
+        <v>0.198141</v>
       </c>
       <c r="O13">
-        <v>0.8613499734447007</v>
+        <v>0.2501894025486007</v>
       </c>
       <c r="P13">
-        <v>0.8613499734447005</v>
+        <v>0.2501894025486007</v>
       </c>
       <c r="Q13">
-        <v>21.40594129550789</v>
+        <v>0.9147694871913336</v>
       </c>
       <c r="R13">
-        <v>192.653471659571</v>
+        <v>8.232925384722002</v>
       </c>
       <c r="S13">
-        <v>0.2276305259446849</v>
+        <v>0.06441494425922041</v>
       </c>
       <c r="T13">
-        <v>0.2276305259446848</v>
+        <v>0.06441494425922042</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,25 +1278,25 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.40878</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H14">
-        <v>1.22634</v>
+        <v>41.550842</v>
       </c>
       <c r="I14">
-        <v>0.005590173875221268</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J14">
-        <v>0.005590173875221269</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,33 +1305,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03142433333333333</v>
+        <v>0.1027586666666667</v>
       </c>
       <c r="N14">
-        <v>0.094273</v>
+        <v>0.308276</v>
       </c>
       <c r="O14">
-        <v>0.02443580032799489</v>
+        <v>0.3892550671495168</v>
       </c>
       <c r="P14">
-        <v>0.02443580032799488</v>
+        <v>0.3892550671495169</v>
       </c>
       <c r="Q14">
-        <v>0.01284563898</v>
+        <v>1.423236374265778</v>
       </c>
       <c r="R14">
-        <v>0.11561075082</v>
+        <v>12.809127368392</v>
       </c>
       <c r="S14">
-        <v>0.0001366003726136803</v>
+        <v>0.1002194465378464</v>
       </c>
       <c r="T14">
-        <v>0.0001366003726136803</v>
+        <v>0.1002194465378465</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.40878</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H15">
-        <v>1.22634</v>
+        <v>41.550842</v>
       </c>
       <c r="I15">
-        <v>0.005590173875221268</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J15">
-        <v>0.005590173875221269</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,33 +1367,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.06604700000000001</v>
+        <v>0.06312366666666668</v>
       </c>
       <c r="N15">
-        <v>0.198141</v>
+        <v>0.189371</v>
       </c>
       <c r="O15">
-        <v>0.05135864895345683</v>
+        <v>0.2391156668737468</v>
       </c>
       <c r="P15">
-        <v>0.05135864895345682</v>
+        <v>0.2391156668737468</v>
       </c>
       <c r="Q15">
-        <v>0.02699869266</v>
+        <v>0.8742805000424446</v>
       </c>
       <c r="R15">
-        <v>0.24298823394</v>
+        <v>7.868524500382001</v>
       </c>
       <c r="S15">
-        <v>0.0002871037776462745</v>
+        <v>0.0615638480138529</v>
       </c>
       <c r="T15">
-        <v>0.0002871037776462745</v>
+        <v>0.06156384801385292</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.40878</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H16">
-        <v>1.22634</v>
+        <v>41.550842</v>
       </c>
       <c r="I16">
-        <v>0.005590173875221268</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J16">
-        <v>0.005590173875221269</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.080832</v>
+        <v>0.02458133333333333</v>
       </c>
       <c r="N16">
-        <v>0.242496</v>
+        <v>0.073744</v>
       </c>
       <c r="O16">
-        <v>0.06285557727384775</v>
+        <v>0.09311534362673049</v>
       </c>
       <c r="P16">
-        <v>0.06285557727384773</v>
+        <v>0.0931153436267305</v>
       </c>
       <c r="Q16">
-        <v>0.03304250496</v>
+        <v>0.3404583658275556</v>
       </c>
       <c r="R16">
-        <v>0.29738254464</v>
+        <v>3.064125292448</v>
       </c>
       <c r="S16">
-        <v>0.0003513736059882153</v>
+        <v>0.02397391579457028</v>
       </c>
       <c r="T16">
-        <v>0.0003513736059882153</v>
+        <v>0.02397391579457029</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H17">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I17">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J17">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>1.107692333333333</v>
+        <v>0.007477333333333333</v>
       </c>
       <c r="N17">
-        <v>3.323077</v>
+        <v>0.022432</v>
       </c>
       <c r="O17">
-        <v>0.8613499734447007</v>
+        <v>0.02832451980140511</v>
       </c>
       <c r="P17">
-        <v>0.8613499734447005</v>
+        <v>0.02832451980140511</v>
       </c>
       <c r="Q17">
-        <v>0.45280247202</v>
+        <v>0.001536716622222222</v>
       </c>
       <c r="R17">
-        <v>4.07522224818</v>
+        <v>0.0138304496</v>
       </c>
       <c r="S17">
-        <v>0.004815096118973098</v>
+        <v>0.0001082103381766577</v>
       </c>
       <c r="T17">
-        <v>0.004815096118973099</v>
+        <v>0.0001082103381766577</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>26.534778</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H18">
-        <v>79.60433399999999</v>
+        <v>0.61655</v>
       </c>
       <c r="I18">
-        <v>0.3628700591036647</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J18">
-        <v>0.3628700591036647</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,33 +1553,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.03142433333333333</v>
+        <v>0.06604700000000001</v>
       </c>
       <c r="N18">
-        <v>0.094273</v>
+        <v>0.198141</v>
       </c>
       <c r="O18">
-        <v>0.02443580032799489</v>
+        <v>0.2501894025486007</v>
       </c>
       <c r="P18">
-        <v>0.02443580032799488</v>
+        <v>0.2501894025486007</v>
       </c>
       <c r="Q18">
-        <v>0.8338377087979999</v>
+        <v>0.01357375928333334</v>
       </c>
       <c r="R18">
-        <v>7.504539379181999</v>
+        <v>0.12216383355</v>
       </c>
       <c r="S18">
-        <v>0.008867020309264853</v>
+        <v>0.000955817787832611</v>
       </c>
       <c r="T18">
-        <v>0.008867020309264853</v>
+        <v>0.0009558177878326112</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>26.534778</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H19">
-        <v>79.60433399999999</v>
+        <v>0.61655</v>
       </c>
       <c r="I19">
-        <v>0.3628700591036647</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J19">
-        <v>0.3628700591036647</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,60 +1615,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.06604700000000001</v>
+        <v>0.1027586666666667</v>
       </c>
       <c r="N19">
-        <v>0.198141</v>
+        <v>0.308276</v>
       </c>
       <c r="O19">
-        <v>0.05135864895345683</v>
+        <v>0.3892550671495168</v>
       </c>
       <c r="P19">
-        <v>0.05135864895345682</v>
+        <v>0.3892550671495169</v>
       </c>
       <c r="Q19">
-        <v>1.752542482566</v>
+        <v>0.02111861864444444</v>
       </c>
       <c r="R19">
-        <v>15.772882343094</v>
+        <v>0.1900675678</v>
       </c>
       <c r="S19">
-        <v>0.01863651598122525</v>
+        <v>0.001487101025844656</v>
       </c>
       <c r="T19">
-        <v>0.01863651598122524</v>
+        <v>0.001487101025844656</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>26.534778</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H20">
-        <v>79.60433399999999</v>
+        <v>0.61655</v>
       </c>
       <c r="I20">
-        <v>0.3628700591036647</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J20">
-        <v>0.3628700591036647</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,33 +1677,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.080832</v>
+        <v>0.06312366666666668</v>
       </c>
       <c r="N20">
-        <v>0.242496</v>
+        <v>0.189371</v>
       </c>
       <c r="O20">
-        <v>0.06285557727384775</v>
+        <v>0.2391156668737468</v>
       </c>
       <c r="P20">
-        <v>0.06285557727384773</v>
+        <v>0.2391156668737468</v>
       </c>
       <c r="Q20">
-        <v>2.144859175296</v>
+        <v>0.01297296556111111</v>
       </c>
       <c r="R20">
-        <v>19.303732577664</v>
+        <v>0.11675669005</v>
       </c>
       <c r="S20">
-        <v>0.0228084070403561</v>
+        <v>0.0009135119450272754</v>
       </c>
       <c r="T20">
-        <v>0.02280840704035609</v>
+        <v>0.0009135119450272756</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>26.534778</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H21">
-        <v>79.60433399999999</v>
+        <v>0.61655</v>
       </c>
       <c r="I21">
-        <v>0.3628700591036647</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J21">
-        <v>0.3628700591036647</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.107692333333333</v>
+        <v>0.02458133333333333</v>
       </c>
       <c r="N21">
-        <v>3.323077</v>
+        <v>0.073744</v>
       </c>
       <c r="O21">
-        <v>0.8613499734447007</v>
+        <v>0.09311534362673049</v>
       </c>
       <c r="P21">
-        <v>0.8613499734447005</v>
+        <v>0.0931153436267305</v>
       </c>
       <c r="Q21">
-        <v>29.392370157302</v>
+        <v>0.00505187368888889</v>
       </c>
       <c r="R21">
-        <v>264.531331415718</v>
+        <v>0.04546686320000001</v>
       </c>
       <c r="S21">
-        <v>0.3125581157728186</v>
+        <v>0.0003557356980429495</v>
       </c>
       <c r="T21">
-        <v>0.3125581157728185</v>
+        <v>0.0003557356980429497</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.08605666666667</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H22">
-        <v>57.25817000000001</v>
+        <v>85.080574</v>
       </c>
       <c r="I22">
-        <v>0.2610068382968657</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J22">
-        <v>0.2610068382968657</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,33 +1801,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.03142433333333333</v>
+        <v>0.007477333333333333</v>
       </c>
       <c r="N22">
-        <v>0.094273</v>
+        <v>0.022432</v>
       </c>
       <c r="O22">
-        <v>0.02443580032799489</v>
+        <v>0.02832451980140511</v>
       </c>
       <c r="P22">
-        <v>0.02443580032799488</v>
+        <v>0.02832451980140511</v>
       </c>
       <c r="Q22">
-        <v>0.5997666067122223</v>
+        <v>0.2120586039964444</v>
       </c>
       <c r="R22">
-        <v>5.397899460410001</v>
+        <v>1.908527435968</v>
       </c>
       <c r="S22">
-        <v>0.006377910984863458</v>
+        <v>0.01493244292401938</v>
       </c>
       <c r="T22">
-        <v>0.006377910984863457</v>
+        <v>0.01493244292401938</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.08605666666667</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H23">
-        <v>57.25817000000001</v>
+        <v>85.080574</v>
       </c>
       <c r="I23">
-        <v>0.2610068382968657</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J23">
-        <v>0.2610068382968657</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1869,27 +1869,27 @@
         <v>0.198141</v>
       </c>
       <c r="O23">
-        <v>0.05135864895345683</v>
+        <v>0.2501894025486007</v>
       </c>
       <c r="P23">
-        <v>0.05135864895345682</v>
+        <v>0.2501894025486007</v>
       </c>
       <c r="Q23">
-        <v>1.260576784663334</v>
+        <v>1.873105556992667</v>
       </c>
       <c r="R23">
-        <v>11.34519106197</v>
+        <v>16.857950012934</v>
       </c>
       <c r="S23">
-        <v>0.01340495858254039</v>
+        <v>0.1318976985292495</v>
       </c>
       <c r="T23">
-        <v>0.01340495858254039</v>
+        <v>0.1318976985292495</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.08605666666667</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H24">
-        <v>57.25817000000001</v>
+        <v>85.080574</v>
       </c>
       <c r="I24">
-        <v>0.2610068382968657</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J24">
-        <v>0.2610068382968657</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,90 +1925,462 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.080832</v>
+        <v>0.1027586666666667</v>
       </c>
       <c r="N24">
-        <v>0.242496</v>
+        <v>0.308276</v>
       </c>
       <c r="O24">
-        <v>0.06285557727384775</v>
+        <v>0.3892550671495168</v>
       </c>
       <c r="P24">
-        <v>0.06285557727384773</v>
+        <v>0.3892550671495169</v>
       </c>
       <c r="Q24">
-        <v>1.54276413248</v>
+        <v>2.914255447824889</v>
       </c>
       <c r="R24">
-        <v>13.88487719232</v>
+        <v>26.228299030424</v>
       </c>
       <c r="S24">
-        <v>0.01640573549357132</v>
+        <v>0.2052119193493669</v>
       </c>
       <c r="T24">
-        <v>0.01640573549357132</v>
+        <v>0.2052119193493669</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>28.36019133333333</v>
+      </c>
+      <c r="H25">
+        <v>85.080574</v>
+      </c>
+      <c r="I25">
+        <v>0.5271913885466336</v>
+      </c>
+      <c r="J25">
+        <v>0.5271913885466337</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.06312366666666668</v>
+      </c>
+      <c r="N25">
+        <v>0.189371</v>
+      </c>
+      <c r="O25">
+        <v>0.2391156668737468</v>
+      </c>
+      <c r="P25">
+        <v>0.2391156668737468</v>
+      </c>
+      <c r="Q25">
+        <v>1.790199264328223</v>
+      </c>
+      <c r="R25">
+        <v>16.111793378954</v>
+      </c>
+      <c r="S25">
+        <v>0.1260597204424248</v>
+      </c>
+      <c r="T25">
+        <v>0.1260597204424249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>28.36019133333333</v>
+      </c>
+      <c r="H26">
+        <v>85.080574</v>
+      </c>
+      <c r="I26">
+        <v>0.5271913885466336</v>
+      </c>
+      <c r="J26">
+        <v>0.5271913885466337</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.02458133333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.073744</v>
+      </c>
+      <c r="O26">
+        <v>0.09311534362673049</v>
+      </c>
+      <c r="P26">
+        <v>0.0931153436267305</v>
+      </c>
+      <c r="Q26">
+        <v>0.6971313165617777</v>
+      </c>
+      <c r="R26">
+        <v>6.274181849056</v>
+      </c>
+      <c r="S26">
+        <v>0.04908960730157298</v>
+      </c>
+      <c r="T26">
+        <v>0.049089607301573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>19.08605666666667</v>
-      </c>
-      <c r="H25">
-        <v>57.25817000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.2610068382968657</v>
-      </c>
-      <c r="J25">
-        <v>0.2610068382968657</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.107692333333333</v>
-      </c>
-      <c r="N25">
-        <v>3.323077</v>
-      </c>
-      <c r="O25">
-        <v>0.8613499734447007</v>
-      </c>
-      <c r="P25">
-        <v>0.8613499734447005</v>
-      </c>
-      <c r="Q25">
-        <v>21.14147864323222</v>
-      </c>
-      <c r="R25">
-        <v>190.27330778909</v>
-      </c>
-      <c r="S25">
-        <v>0.2248182332358905</v>
-      </c>
-      <c r="T25">
-        <v>0.2248182332358905</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.192812666666667</v>
+      </c>
+      <c r="H27">
+        <v>15.578438</v>
+      </c>
+      <c r="I27">
+        <v>0.09652988895688036</v>
+      </c>
+      <c r="J27">
+        <v>0.09652988895688037</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.007477333333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.022432</v>
+      </c>
+      <c r="O27">
+        <v>0.02832451980140511</v>
+      </c>
+      <c r="P27">
+        <v>0.02832451980140511</v>
+      </c>
+      <c r="Q27">
+        <v>0.03882839124622222</v>
+      </c>
+      <c r="R27">
+        <v>0.349455521216</v>
+      </c>
+      <c r="S27">
+        <v>0.002734162751186594</v>
+      </c>
+      <c r="T27">
+        <v>0.002734162751186595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.192812666666667</v>
+      </c>
+      <c r="H28">
+        <v>15.578438</v>
+      </c>
+      <c r="I28">
+        <v>0.09652988895688036</v>
+      </c>
+      <c r="J28">
+        <v>0.09652988895688037</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.06604700000000001</v>
+      </c>
+      <c r="N28">
+        <v>0.198141</v>
+      </c>
+      <c r="O28">
+        <v>0.2501894025486007</v>
+      </c>
+      <c r="P28">
+        <v>0.2501894025486007</v>
+      </c>
+      <c r="Q28">
+        <v>0.3429696981953334</v>
+      </c>
+      <c r="R28">
+        <v>3.086727283758</v>
+      </c>
+      <c r="S28">
+        <v>0.02415075524620466</v>
+      </c>
+      <c r="T28">
+        <v>0.02415075524620467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.192812666666667</v>
+      </c>
+      <c r="H29">
+        <v>15.578438</v>
+      </c>
+      <c r="I29">
+        <v>0.09652988895688036</v>
+      </c>
+      <c r="J29">
+        <v>0.09652988895688037</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.1027586666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.308276</v>
+      </c>
+      <c r="O29">
+        <v>0.3892550671495168</v>
+      </c>
+      <c r="P29">
+        <v>0.3892550671495169</v>
+      </c>
+      <c r="Q29">
+        <v>0.5336065058764444</v>
+      </c>
+      <c r="R29">
+        <v>4.802458552888</v>
+      </c>
+      <c r="S29">
+        <v>0.03757474840784587</v>
+      </c>
+      <c r="T29">
+        <v>0.03757474840784587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.192812666666667</v>
+      </c>
+      <c r="H30">
+        <v>15.578438</v>
+      </c>
+      <c r="I30">
+        <v>0.09652988895688036</v>
+      </c>
+      <c r="J30">
+        <v>0.09652988895688037</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.06312366666666668</v>
+      </c>
+      <c r="N30">
+        <v>0.189371</v>
+      </c>
+      <c r="O30">
+        <v>0.2391156668737468</v>
+      </c>
+      <c r="P30">
+        <v>0.2391156668737468</v>
+      </c>
+      <c r="Q30">
+        <v>0.3277893758331112</v>
+      </c>
+      <c r="R30">
+        <v>2.950104382498</v>
+      </c>
+      <c r="S30">
+        <v>0.02308180877117317</v>
+      </c>
+      <c r="T30">
+        <v>0.02308180877117318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.192812666666667</v>
+      </c>
+      <c r="H31">
+        <v>15.578438</v>
+      </c>
+      <c r="I31">
+        <v>0.09652988895688036</v>
+      </c>
+      <c r="J31">
+        <v>0.09652988895688037</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.02458133333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.073744</v>
+      </c>
+      <c r="O31">
+        <v>0.09311534362673049</v>
+      </c>
+      <c r="P31">
+        <v>0.0931153436267305</v>
+      </c>
+      <c r="Q31">
+        <v>0.1276462590968889</v>
+      </c>
+      <c r="R31">
+        <v>1.148816331872</v>
+      </c>
+      <c r="S31">
+        <v>0.008988413780470052</v>
+      </c>
+      <c r="T31">
+        <v>0.008988413780470054</v>
       </c>
     </row>
   </sheetData>
